--- a/docs/Analise Empirica.xlsx
+++ b/docs/Analise Empirica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uporto-my.sharepoint.com/personal/up201907014_up_pt/Documents/2 ano/CAL/cal-proj-t08g01/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{62456AF7-3757-45DA-89D2-C4823A338CFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C6DFA823-8C9C-450E-B4AC-F1279EC1C2E6}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{62456AF7-3757-45DA-89D2-C4823A338CFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2DEEDD23-61CE-4D24-ACD8-5B443C24B709}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{F2C8B7EE-8391-4B16-AAA7-37FBACD1336A}"/>
+    <workbookView minimized="1" xWindow="4207" yWindow="2817" windowWidth="18032" windowHeight="9392" xr2:uid="{F2C8B7EE-8391-4B16-AAA7-37FBACD1336A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>4x4</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>A*</t>
+  </si>
+  <si>
+    <t>10 Clientes</t>
+  </si>
+  <si>
+    <t>5 Clientes</t>
+  </si>
+  <si>
+    <t>20 Clientes</t>
+  </si>
+  <si>
+    <t>Number of Clients</t>
   </si>
 </sst>
 </file>
@@ -176,9 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -188,7 +198,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1806,6 +1818,484 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Nearest Neighbour</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$20:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 Clientes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 Clientes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20 Clientes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>449585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F92-435B-8213-FCB1179EF043}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$20:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 Clientes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 Clientes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20 Clientes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F92-435B-8213-FCB1179EF043}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1859877600"/>
+        <c:axId val="1859865120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1859877600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1859865120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1859865120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1859877600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1966,6 +2456,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3476,6 +4006,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4119,6 +5152,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>492981</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>163001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469127</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E159A752-E79D-4B29-A246-DD4CBA5C1DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4424,14 +5493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD13F09D-BE0E-4089-8B8C-CCC2BB55048C}">
-  <dimension ref="A2:Q21"/>
+  <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="10" max="12" width="9.5546875" customWidth="1"/>
     <col min="13" max="14" width="8.88671875" customWidth="1"/>
     <col min="15" max="15" width="10.88671875" customWidth="1"/>
     <col min="16" max="17" width="10.77734375" customWidth="1"/>
@@ -4445,17 +5515,17 @@
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -4544,21 +5614,26 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>0</v>
@@ -4569,8 +5644,17 @@
       <c r="E20" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
@@ -4583,13 +5667,40 @@
       <c r="E21" s="2">
         <v>4141</v>
       </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2">
+        <v>31659</v>
+      </c>
+      <c r="K21" s="2">
+        <v>140524</v>
+      </c>
+      <c r="L21" s="2">
+        <v>449585</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>272</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1410</v>
+      </c>
+      <c r="L22" s="2">
+        <v>7663</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
